--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/TheEngine/V1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075E7E0-331A-7F42-9446-252A251BDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881F0C2-82A7-2D4A-A5C0-EFDE8AEA1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="500" windowWidth="19820" windowHeight="24060" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="22080" yWindow="500" windowWidth="18380" windowHeight="24080" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Oftarget</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>oxDensityStart</t>
   </si>
@@ -48,9 +44,6 @@
     <t>fuelDensityStart</t>
   </si>
   <si>
-    <t>Sizing</t>
-  </si>
-  <si>
     <t>heightNoseCone</t>
   </si>
   <si>
@@ -81,9 +74,6 @@
     <t>OD</t>
   </si>
   <si>
-    <t>Tank Properties</t>
-  </si>
-  <si>
     <t>tankThick</t>
   </si>
   <si>
@@ -126,23 +116,62 @@
     <t>elementCountFuel</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>*Things to Note:</t>
   </si>
   <si>
-    <t>Testing2</t>
-  </si>
-  <si>
     <t>MatLab will start pulling from column which starts populating data from lowest row</t>
+  </si>
+  <si>
+    <t>Vehicle Size</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>heightFuel</t>
+  </si>
+  <si>
+    <t>heightRatioOF</t>
+  </si>
+  <si>
+    <t>Tank Sizing</t>
+  </si>
+  <si>
+    <t>OFtarget</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>The Rocket Sizer</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>heightPayload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,16 +187,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD5852"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BE8F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -175,19 +249,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4BE8F3"/>
+      <color rgb="FFFD5852"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,262 +756,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EE674D-90FE-AD48-84C7-5AAF538DFADD}">
-  <dimension ref="C4:H47"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="F5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.65</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32">
+        <v>24</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="33">
+        <v>22.5</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="33">
+        <v>5</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="33">
+        <v>10</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="33">
+        <v>5</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="F13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="34">
+        <f>G15/G28</f>
+        <v>11.622418879056045</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="33">
+        <v>5</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="33">
+        <v>25</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="33">
+        <v>5</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.26369999999999999</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="33">
+        <v>14</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.1797</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="33">
+        <v>6</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="33">
+        <v>5</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="33">
+        <v>5</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="F24" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="G26" s="21">
+        <v>788</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="G27" s="24">
         <v>339</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="H27" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="30">
+        <f>C7*G27/G26</f>
+        <v>2.1510152284263961</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
+      <c r="G31" s="24">
         <v>293</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37">
-        <v>0.1797</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
+      <c r="H31" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="6:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F24:H24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881F0C2-82A7-2D4A-A5C0-EFDE8AEA1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0C68A-3ECF-254C-ADF5-0AAB1876A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="500" windowWidth="18380" windowHeight="24080" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -390,52 +390,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +759,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,33 +800,33 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="F5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
       <c r="J5" t="s">
         <v>26</v>
       </c>
@@ -857,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
@@ -867,13 +864,13 @@
       <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="21">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -887,13 +884,13 @@
       <c r="D8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="45">
         <v>24</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -910,7 +907,7 @@
       <c r="F9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="45">
         <v>22.5</v>
       </c>
       <c r="H9" s="25" t="s">
@@ -923,7 +920,7 @@
       <c r="F10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="45">
         <v>5</v>
       </c>
       <c r="H10" s="25" t="s">
@@ -937,7 +934,7 @@
       <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="45">
         <v>10</v>
       </c>
       <c r="H11" s="25" t="s">
@@ -948,7 +945,7 @@
       <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="45">
         <v>5</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -956,15 +953,15 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="F13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="46">
         <f>G15/G28</f>
         <v>11.622418879056045</v>
       </c>
@@ -985,7 +982,7 @@
       <c r="F14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="45">
         <v>5</v>
       </c>
       <c r="H14" s="25" t="s">
@@ -1005,7 +1002,7 @@
       <c r="F15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="45">
         <v>25</v>
       </c>
       <c r="H15" s="25" t="s">
@@ -1025,7 +1022,7 @@
       <c r="F16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="45">
         <v>5</v>
       </c>
       <c r="H16" s="25" t="s">
@@ -1045,7 +1042,7 @@
       <c r="F17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="45">
         <v>14</v>
       </c>
       <c r="H17" s="25" t="s">
@@ -1065,7 +1062,7 @@
       <c r="F18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="45">
         <v>6</v>
       </c>
       <c r="H18" s="25" t="s">
@@ -1085,7 +1082,7 @@
       <c r="F19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="45">
         <v>5</v>
       </c>
       <c r="H19" s="25" t="s">
@@ -1105,7 +1102,7 @@
       <c r="F20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
       <c r="H20" s="25" t="s">
@@ -1118,7 +1115,7 @@
       <c r="F21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="45">
         <v>0.25</v>
       </c>
       <c r="H21" s="25" t="s">
@@ -1136,11 +1133,11 @@
     <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F25" s="18" t="s">

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0C68A-3ECF-254C-ADF5-0AAB1876A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391DDB4-1296-5C48-97A7-EFFEB2D08D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -391,6 +391,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,12 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +759,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,16 +817,16 @@
     </row>
     <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="F5" s="33" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="F5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="J5" t="s">
         <v>26</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="F8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="33">
         <v>24</v>
       </c>
       <c r="H8" s="25" t="s">
@@ -907,7 +907,7 @@
       <c r="F9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="33">
         <v>22.5</v>
       </c>
       <c r="H9" s="25" t="s">
@@ -920,7 +920,7 @@
       <c r="F10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="33">
         <v>5</v>
       </c>
       <c r="H10" s="25" t="s">
@@ -934,7 +934,7 @@
       <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="33">
         <v>10</v>
       </c>
       <c r="H11" s="25" t="s">
@@ -945,7 +945,7 @@
       <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="33">
         <v>5</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -953,15 +953,15 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="F13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="34">
         <f>G15/G28</f>
         <v>11.622418879056045</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="F14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="33">
         <v>5</v>
       </c>
       <c r="H14" s="25" t="s">
@@ -1002,7 +1002,7 @@
       <c r="F15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="33">
         <v>25</v>
       </c>
       <c r="H15" s="25" t="s">
@@ -1022,7 +1022,7 @@
       <c r="F16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="33">
         <v>5</v>
       </c>
       <c r="H16" s="25" t="s">
@@ -1042,7 +1042,7 @@
       <c r="F17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="33">
         <v>14</v>
       </c>
       <c r="H17" s="25" t="s">
@@ -1062,8 +1062,8 @@
       <c r="F18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="45">
-        <v>6</v>
+      <c r="G18" s="33">
+        <v>5</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>32</v>
@@ -1082,7 +1082,7 @@
       <c r="F19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="33">
         <v>5</v>
       </c>
       <c r="H19" s="25" t="s">
@@ -1102,7 +1102,7 @@
       <c r="F20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="33">
         <v>5</v>
       </c>
       <c r="H20" s="25" t="s">
@@ -1115,7 +1115,7 @@
       <c r="F21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="33">
         <v>0.25</v>
       </c>
       <c r="H21" s="25" t="s">
@@ -1133,11 +1133,11 @@
     <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F25" s="18" t="s">

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391DDB4-1296-5C48-97A7-EFFEB2D08D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BFEFD-E54A-8348-9026-F6B9101C12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -758,8 +758,8 @@
   </sheetPr>
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="33">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>32</v>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="33">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>32</v>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>32</v>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e4c4267ba78d20/Desktop/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BFEFD-E54A-8348-9026-F6B9101C12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{812BFEFD-E54A-8348-9026-F6B9101C12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45A4A71-8192-421C-8F88-F2BAA7C1D921}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -759,18 +759,18 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" customWidth="1"/>
+    <col min="8" max="8" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -799,7 +799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="49.05" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
@@ -808,15 +808,15 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
@@ -831,7 +831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
@@ -854,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
@@ -874,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
@@ -894,7 +894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
@@ -914,7 +914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="D10" s="3"/>
       <c r="F10" s="23" t="s">
@@ -927,7 +927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
@@ -952,7 +952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="41" t="s">
         <v>19</v>
       </c>
@@ -969,7 +969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>23</v>
       </c>
@@ -1063,13 +1063,13 @@
         <v>11</v>
       </c>
       <c r="G18" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="23" t="s">
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1130,8 +1130,8 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="F24" s="44" t="s">
         <v>36</v>
@@ -1139,7 +1139,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
     </row>
-    <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="18" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F26" s="20" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F27" s="23" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F28" s="28" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F29" s="23" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F31" s="23" t="s">
         <v>13</v>
       </c>
@@ -1217,11 +1217,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F32" s="2"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="6:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e4c4267ba78d20/Desktop/TheRocket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{812BFEFD-E54A-8348-9026-F6B9101C12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45A4A71-8192-421C-8F88-F2BAA7C1D921}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B09803-54D7-D14F-9D89-E56EB3584A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="19660" yWindow="500" windowWidth="21180" windowHeight="23220" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -759,18 +759,18 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="25.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -799,7 +799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="49.05" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:10" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>40</v>
       </c>
@@ -808,15 +808,15 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="2:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
@@ -831,7 +831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
@@ -854,12 +854,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="21">
-        <v>5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>33</v>
@@ -874,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
@@ -894,7 +894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
@@ -914,7 +914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="D10" s="3"/>
       <c r="F10" s="23" t="s">
@@ -927,7 +927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="23" t="s">
         <v>6</v>
       </c>
@@ -952,7 +952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
         <v>19</v>
       </c>
@@ -963,13 +963,13 @@
       </c>
       <c r="G13" s="34">
         <f>G15/G28</f>
-        <v>11.622418879056045</v>
+        <v>5.6972641564000233</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
@@ -1029,12 +1029,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="24">
-        <v>0.26369999999999999</v>
+        <v>0.29060000000000002</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>32</v>
@@ -1049,12 +1049,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="24">
-        <v>0.1797</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>32</v>
@@ -1069,7 +1069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="23" t="s">
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1130,8 +1130,8 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="F24" s="44" t="s">
         <v>36</v>
@@ -1139,7 +1139,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
     </row>
-    <row r="25" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F25" s="18" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F26" s="20" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F27" s="23" t="s">
         <v>1</v>
       </c>
@@ -1172,19 +1172,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F28" s="28" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="30">
         <f>C7*G27/G26</f>
-        <v>2.1510152284263961</v>
+        <v>4.3880710659898474</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F29" s="23" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F31" s="23" t="s">
         <v>13</v>
       </c>
@@ -1217,11 +1217,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F32" s="2"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="6:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B09803-54D7-D14F-9D89-E56EB3584A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6CCB5-A517-6D44-B9DB-73B82E3EAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="500" windowWidth="21180" windowHeight="23220" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="8140" yWindow="500" windowWidth="30860" windowHeight="24240" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,13 +758,13 @@
   </sheetPr>
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6CCB5-A517-6D44-B9DB-73B82E3EAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB079AB-83E0-904B-8FE8-8449ACAF38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="500" windowWidth="30860" windowHeight="24240" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,7 +759,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>32</v>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB079AB-83E0-904B-8FE8-8449ACAF38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706106D-C1B4-644F-AFB9-3E054ECB648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="0" yWindow="2920" windowWidth="28800" windowHeight="16020" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,7 +759,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>32</v>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>32</v>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>32</v>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706106D-C1B4-644F-AFB9-3E054ECB648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB079AB-83E0-904B-8FE8-8449ACAF38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2920" windowWidth="28800" windowHeight="16020" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,7 +759,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>32</v>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>32</v>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>32</v>

--- a/MasterParameters.xlsx
+++ b/MasterParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaroncope/Desktop/TheRocket/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryansmithers/Desktop/ProjectLiquid/TheRocket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB079AB-83E0-904B-8FE8-8449ACAF38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F6CCB5-A517-6D44-B9DB-73B82E3EAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
+    <workbookView xWindow="8140" yWindow="500" windowWidth="30860" windowHeight="24240" xr2:uid="{C3C4CF6F-A6F1-7741-A638-B36B6E712D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,7 +759,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="33">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>32</v>
